--- a/LubanTools/DesignerConfigs/Datas/J_界面相关/UIForm_Config.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/J_界面相关/UIForm_Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\Deer_GameFramework_HuaTuo\LubanTools\DesignerConfigs\Datas\J_界面相关\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\Owner\Deer_GameFramework_Wolong\LubanTools\DesignerConfigs\Datas\J_界面相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE678A8-CEBF-40E7-B8F3-7B635EE43AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D132A931-89C0-4BEF-951F-B8FB46C9F696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9816" yWindow="3552" windowWidth="17676" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIForm_Config" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -162,6 +162,23 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formType</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>界面类型</t>
+  </si>
+  <si>
+    <t>提示框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITipsForm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -527,22 +544,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="3" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -552,20 +569,23 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -573,20 +593,23 @@
         <v>32</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -596,163 +619,211 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>100</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="b">
+      <c r="G7" t="b">
         <v>0</v>
       </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="b">
+      <c r="G8" t="b">
         <v>0</v>
       </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>102</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="b">
+      <c r="G9" t="b">
         <v>0</v>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="b">
+      <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>200</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="b">
+      <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="G10" t="b">
+      <c r="H11" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="AlwaysBottom 如果不想区分太复杂那最底层的UI请使用这个_x000a_Background 背景层 UI _x000a_Common 普通层 UI 打开此类型界面，他的兄弟界面会被覆盖掉_x000a_AnimationOn 动画层_x000a_PopUI 弹出层UI 打开此类型的界面，可以打开多个_x000a_Guide 引导层UI_x000a_Const 持续存在层 UI_x000a_Toast 对话框层 UI_x000a_Forward 最高UI层用来放置UI特效和模型_x000a_AlwaysTop 如果不想区分太复杂那最上层的UI请使用这个" sqref="E1:E1048576" xr:uid="{C0BC0120-57EF-4C4A-A1F9-3E9CCED4D93B}"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="AlwaysBottom 如果不想区分太复杂那最底层的UI请使用这个_x000a_Background 背景层 UI _x000a_Common 普通层 UI 打开此类型界面，他的兄弟界面会被覆盖掉_x000a_AnimationOn 动画层_x000a_PopUI 弹出层UI 打开此类型的界面，可以打开多个_x000a_Guide 引导层UI_x000a_Const 持续存在层 UI_x000a_Toast 对话框层 UI_x000a_Forward 最高UI层用来放置UI特效和模型_x000a_AlwaysTop 如果不想区分太复杂那最上层的UI请使用这个" sqref="F1:F1048576" xr:uid="{C0BC0120-57EF-4C4A-A1F9-3E9CCED4D93B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="界面类型" prompt="1.独立主界面_x000a_2.独立主界面下子界面_x000a_3.公共子界面" sqref="D1:D1048576" xr:uid="{48D727F8-DC5A-4E74-B87C-B07C15B6DBB3}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LubanTools/DesignerConfigs/Datas/J_界面相关/UIForm_Config.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/J_界面相关/UIForm_Config.xlsx
@@ -1,216 +1,362 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\Owner\Deer_GameFramework_Wolong\LubanTools\DesignerConfigs\Datas\J_界面相关\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D132A931-89C0-4BEF-951F-B8FB46C9F696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9816" yWindow="3552" windowWidth="17676" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21525" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="UIForm_Config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+  <si>
+    <t>##var</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
     <t>#desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>formType</t>
+  </si>
+  <si>
+    <t>assetName</t>
+  </si>
+  <si>
+    <t>uiGroupName</t>
+  </si>
+  <si>
+    <t>allowMultiInstance</t>
+  </si>
+  <si>
+    <t>pauseCoveredUIForm</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>##</t>
   </si>
   <si>
     <t>唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assetName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划备注</t>
+  </si>
+  <si>
+    <t>界面类型</t>
+  </si>
+  <si>
+    <t>资源名字</t>
+  </si>
+  <si>
+    <t>界面组名字</t>
+  </si>
+  <si>
+    <t>是否允许多个界面实例</t>
+  </si>
+  <si>
+    <t>是否暂停被其覆盖的界面</t>
   </si>
   <si>
     <t>弹出框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIDialogForm</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>PopUI</t>
+  </si>
+  <si>
+    <t>提示框</t>
+  </si>
+  <si>
+    <t>UITipsForm</t>
   </si>
   <si>
     <t>下载资源加载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面组名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>uiGroupName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowMultiInstance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否允许多个界面实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pauseCoveredUIForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否暂停被其覆盖的界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>UIDialogForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UILoadingForm</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>登录界面</t>
   </si>
   <si>
     <t>UILoginForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PopUI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面</t>
   </si>
   <si>
     <t>UIMainForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>背包界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UIBagForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
   </si>
   <si>
     <t>UIMailForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UILoadingForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Background</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>formType</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>界面类型</t>
-  </si>
-  <si>
-    <t>提示框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITipsForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+  </si>
+  <si>
+    <t>UIMenuForm</t>
+  </si>
+  <si>
+    <t>场景加载界面</t>
+  </si>
+  <si>
+    <t>UILoadingSceneForm</t>
+  </si>
+  <si>
+    <t>游戏模式选择界面</t>
+  </si>
+  <si>
+    <t>UIGameModeForm</t>
+  </si>
+  <si>
+    <t>飞机角色选择界面</t>
+  </si>
+  <si>
+    <t>UICharacterSelectionForm</t>
+  </si>
+  <si>
+    <t>场地选页面</t>
+  </si>
+  <si>
+    <t>UIRaceSelectionForm</t>
+  </si>
+  <si>
+    <t>Game Play 界面</t>
+  </si>
+  <si>
+    <t>UIGamePlayForm</t>
+  </si>
+  <si>
+    <t>游戏暂停界面</t>
+  </si>
+  <si>
+    <t>UIGameStopForm</t>
+  </si>
+  <si>
+    <t>设置界面</t>
+  </si>
+  <si>
+    <t>UISettingsForm</t>
+  </si>
+  <si>
+    <t>设置-音频设置界面</t>
+  </si>
+  <si>
+    <t>UISettingAudioForm</t>
+  </si>
+  <si>
+    <t>设置-GameOptions</t>
+  </si>
+  <si>
+    <t>UISettingGameOptionsForm</t>
+  </si>
+  <si>
+    <t>游戏结算界面</t>
+  </si>
+  <si>
+    <t>UIGameSettleForm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,12 +365,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -247,35 +573,303 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="14" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="60% - 着色 2" xfId="1" builtinId="36"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -324,7 +918,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -359,7 +953,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -533,123 +1127,118 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="4" width="24.77734375" customWidth="1"/>
+    <col min="3" max="4" width="24.775" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25.775" customWidth="1"/>
+    <col min="8" max="8" width="23.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -658,21 +1247,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -681,21 +1270,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -704,12 +1293,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -727,18 +1316,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -750,18 +1339,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9">
         <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -773,18 +1362,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10">
         <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -796,21 +1385,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -819,13 +1408,266 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" s="2" customFormat="1" spans="2:8">
+      <c r="B12" s="2">
+        <v>300</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="2:8">
+      <c r="B13" s="2">
+        <v>305</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:8">
+      <c r="B14" s="2">
+        <v>310</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="2:8">
+      <c r="B15" s="2">
+        <v>320</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="2:8">
+      <c r="B16" s="2">
+        <v>330</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="2:8">
+      <c r="B17" s="2">
+        <v>340</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="2:8">
+      <c r="B18" s="2">
+        <v>360</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="2:8">
+      <c r="B19" s="2">
+        <v>370</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20">
+        <v>372</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21">
+        <v>374</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22">
+        <v>380</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="AlwaysBottom 如果不想区分太复杂那最底层的UI请使用这个_x000a_Background 背景层 UI _x000a_Common 普通层 UI 打开此类型界面，他的兄弟界面会被覆盖掉_x000a_AnimationOn 动画层_x000a_PopUI 弹出层UI 打开此类型的界面，可以打开多个_x000a_Guide 引导层UI_x000a_Const 持续存在层 UI_x000a_Toast 对话框层 UI_x000a_Forward 最高UI层用来放置UI特效和模型_x000a_AlwaysTop 如果不想区分太复杂那最上层的UI请使用这个" sqref="F1:F1048576" xr:uid="{C0BC0120-57EF-4C4A-A1F9-3E9CCED4D93B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="界面类型" prompt="1.独立主界面_x000a_2.独立主界面下子界面_x000a_3.公共子界面" sqref="D1:D1048576" xr:uid="{48D727F8-DC5A-4E74-B87C-B07C15B6DBB3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="界面类型" prompt="1.独立主界面&#10;2.独立主界面下子界面&#10;3.公共子界面" sqref="E12 D13 E13 D20 D21 D22 D1:D9 D10:D12 D14:D19 D23:D1048576 E14:E19"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="AlwaysBottom 如果不想区分太复杂那最底层的UI请使用这个&#10;Background 背景层 UI &#10;Common 普通层 UI 打开此类型界面，他的兄弟界面会被覆盖掉&#10;AnimationOn 动画层&#10;PopUI 弹出层UI 打开此类型的界面，可以打开多个&#10;Guide 引导层UI&#10;Const 持续存在层 UI&#10;Toast 对话框层 UI&#10;Forward 最高UI层用来放置UI特效和模型&#10;AlwaysTop 如果不想区分太复杂那最上层的UI请使用这个" sqref="G12 G13 G20 G21 G22 F1:F11 F23:F1048576 G14:G19"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LubanTools/DesignerConfigs/Datas/J_界面相关/UIForm_Config.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/J_界面相关/UIForm_Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21525" windowHeight="9390"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="UIForm_Config" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -94,13 +94,19 @@
     <t>UITipsForm</t>
   </si>
   <si>
-    <t>下载资源加载</t>
+    <t>业务逻辑加载界面</t>
   </si>
   <si>
     <t>UILoadingForm</t>
   </si>
   <si>
     <t>Background</t>
+  </si>
+  <si>
+    <t>业务逻辑单次请求加载界面</t>
+  </si>
+  <si>
+    <t>UILoadingOneForm</t>
   </si>
   <si>
     <t>登录界面</t>
@@ -1133,19 +1139,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="4" width="24.775" customWidth="1"/>
+    <col min="3" max="4" width="24.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="25.775" customWidth="1"/>
-    <col min="8" max="8" width="23.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="25.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1295,7 +1301,7 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -1318,7 +1324,7 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1341,7 +1347,7 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -1364,7 +1370,7 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -1387,7 +1393,7 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -1399,41 +1405,41 @@
         <v>36</v>
       </c>
       <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="2:8">
-      <c r="B12" s="2">
-        <v>300</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="b">
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="2:8">
       <c r="B13" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
@@ -1456,7 +1462,7 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="2:8">
       <c r="B14" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
@@ -1479,7 +1485,7 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="2:8">
       <c r="B15" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>43</v>
@@ -1502,7 +1508,7 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="2:8">
       <c r="B16" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>45</v>
@@ -1525,7 +1531,7 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="2:8">
       <c r="B17" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>47</v>
@@ -1548,7 +1554,7 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="2:8">
       <c r="B18" s="2">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>49</v>
@@ -1571,7 +1577,7 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="2:8">
       <c r="B19" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>51</v>
@@ -1592,17 +1598,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20">
-        <v>372</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="20" s="2" customFormat="1" spans="2:8">
+      <c r="B20" s="2">
+        <v>370</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1617,7 +1623,7 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -1640,7 +1646,7 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
@@ -1661,10 +1667,33 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="2:8">
+      <c r="B23">
+        <v>380</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="界面类型" prompt="1.独立主界面&#10;2.独立主界面下子界面&#10;3.公共子界面" sqref="E12 D13 E13 D20 D21 D22 D1:D9 D10:D12 D14:D19 D23:D1048576 E14:E19"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="AlwaysBottom 如果不想区分太复杂那最底层的UI请使用这个&#10;Background 背景层 UI &#10;Common 普通层 UI 打开此类型界面，他的兄弟界面会被覆盖掉&#10;AnimationOn 动画层&#10;PopUI 弹出层UI 打开此类型的界面，可以打开多个&#10;Guide 引导层UI&#10;Const 持续存在层 UI&#10;Toast 对话框层 UI&#10;Forward 最高UI层用来放置UI特效和模型&#10;AlwaysTop 如果不想区分太复杂那最上层的UI请使用这个" sqref="G12 G13 G20 G21 G22 F1:F11 F23:F1048576 G14:G19"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="界面类型" prompt="1.独立主界面&#10;2.独立主界面下子界面&#10;3.公共子界面" sqref="D7 E13 D14 E14 D21 D22 D23 D1:D6 D8:D10 D11:D13 D15:D20 D24:D1048576 E15:E20"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="AlwaysBottom 如果不想区分太复杂那最底层的UI请使用这个&#10;Background 背景层 UI &#10;Common 普通层 UI 打开此类型界面，他的兄弟界面会被覆盖掉&#10;AnimationOn 动画层&#10;PopUI 弹出层UI 打开此类型的界面，可以打开多个&#10;Guide 引导层UI&#10;Const 持续存在层 UI&#10;Toast 对话框层 UI&#10;Forward 最高UI层用来放置UI特效和模型&#10;AlwaysTop 如果不想区分太复杂那最上层的UI请使用这个" sqref="F7 G13 G14 G21 G22 G23 F1:F6 F8:F12 F24:F1048576 G15:G20"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
